--- a/biology/Médecine/Gotthold_Pannwitz/Gotthold_Pannwitz.xlsx
+++ b/biology/Médecine/Gotthold_Pannwitz/Gotthold_Pannwitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gotthold Theodor Pannwitz (né le 16 mai 1861 à Kirchhain et mort le 29 novembre 1926 à Lychen) est un médecin allemand et fondateur du Comité central allemand pour la lutte contre la tuberculose (de).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pannwitz étudie au lycée de Prenzlau et au lycée de Joachimsthal de Berlin. À partir de 1880, il y étudie comme élève à l'école de médecine militaire de la Charité. Il obteint son doctorat avec une thèse sur le traitement chirurgical des ulcères et devint, après avoir passé l'examen d'État, médecin-assistant puis médecin-chef dans le corps sanitaire de Strasbourg et enfin en 1890 médecin-major à Kehl. Pendant l'épidémie de choléra de 1893 à 1894, il travaille au service de surveillance fluviale du bassin rhénan. En 1895, il retourne à Berlin et travaille à l'Office impérial à la Santé. Désormais, il se consacre à la lutte contre la maladie très répandue, la tuberculose. Il fonde le Comité central allemand pour l'établissement de sanatoriums pour patients pulmonaires, rebaptisé plus tard Comité central allemand pour la lutte contre la tuberculose (de), et en devient le secrétaire général. En 1899, il organise le Congrès international de la tuberculose, en 1902 la Conférence internationale de la tuberculose à Berlin, au cours de laquelle est fondée l'Association internationale contre la tuberculose. Déjà en 1900, il a été promu médecin-chef. Deux ans plus tard, il prend sa retraite du service médical militaire et est nommé professeur.
 En 1903, Pannwitz créé le sanatorium Hohenlychen à Lychen en tant que sanatorium populaire de la Croix-Rouge. Il y défend un concept global - le sanatorium ne doit pas seulement guérir de la tuberculose, mais aussi préparer à la vie après la maladie. C'est pourquoi le vaste terrain comporte également une école d'horticulture, une école ménagère et un établissement de bains. Pour Lychen, la construction de l'établissement signifie l'élévation au rang de station climatique et un essor économique.
@@ -551,7 +565,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La ville de Lychen fait de Pannwitz un citoyen d'honneur. Dans le quartier de Hohenlychen, une rue et l'école primaire portent son nom.
 </t>
@@ -582,7 +598,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Die planmäßige Kriegsvorbereitung der Vereine vom Roten Kreuz: Anleitung zur Aufstellung des Mobilmachungsplanes, Heitz, Straßburg 1892
 Der Nährwert des Soldatenbrots, Berlin 1898
